--- a/Университет/Лабы/2025-2026/Семестр 3/ПСА/3 (метод суперкритерия)/суперкритерий.xlsx
+++ b/Университет/Лабы/2025-2026/Семестр 3/ПСА/3 (метод суперкритерия)/суперкритерий.xlsx
@@ -311,7 +311,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +446,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -453,11 +454,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,7 +521,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,12 +662,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -682,19 +674,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,44 +694,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -830,10 +798,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20017504376094"/>
-          <c:y val="0.144270312326331"/>
-          <c:w val="0.444861215303826"/>
-          <c:h val="0.790596865621874"/>
+          <c:x val="0.200187558612066"/>
+          <c:y val="0.144286349488662"/>
+          <c:w val="0.444826508283839"/>
+          <c:h val="0.790462427745665"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -1059,13 +1027,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60752211"/>
-        <c:axId val="89719704"/>
+        <c:axId val="42642400"/>
+        <c:axId val="90528709"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="60752211"/>
+        <c:axId val="42642400"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1092,7 +1060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89719704"/>
+        <c:crossAx val="90528709"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89719704"/>
+        <c:axId val="90528709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1108,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60752211"/>
+        <c:crossAx val="42642400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1211,10 +1179,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.211414640245046"/>
-          <c:y val="0.120818050461265"/>
-          <c:w val="0.47752703631931"/>
-          <c:h val="0.848727353562299"/>
+          <c:x val="0.211427856964241"/>
+          <c:y val="0.12083148065807"/>
+          <c:w val="0.477494373593398"/>
+          <c:h val="0.848599377501112"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -1550,13 +1518,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="39900766"/>
-        <c:axId val="44680605"/>
+        <c:axId val="68370403"/>
+        <c:axId val="70156624"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="39900766"/>
+        <c:axId val="68370403"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1583,7 +1551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44680605"/>
+        <c:crossAx val="70156624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1591,7 +1559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44680605"/>
+        <c:axId val="70156624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39900766"/>
+        <c:crossAx val="68370403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1741,6 +1709,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1848,6 +1819,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1955,6 +1929,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2062,6 +2039,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2169,6 +2149,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2235,17 +2218,63 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60112464"/>
-        <c:axId val="67612408"/>
+        <c:axId val="22943553"/>
+        <c:axId val="47605820"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="60112464"/>
+        <c:axId val="22943553"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47605820"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47605820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2262,57 +2291,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67612408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67612408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60112464"/>
+        <c:crossAx val="22943553"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,6 +2335,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -2379,9 +2369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2389,8 +2379,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9455760" y="1888560"/>
-        <a:ext cx="5758200" cy="3238560"/>
+        <a:off x="10137600" y="1738080"/>
+        <a:ext cx="5757840" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2413,10 +2403,10 @@
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2424,8 +2414,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7367400" y="1960920"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="7367400" y="1848600"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2445,13 +2435,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>792720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
+      <xdr:colOff>674280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1226880</xdr:rowOff>
+      <xdr:rowOff>1188360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2460,7 +2450,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11613240" y="2708640"/>
-        <a:ext cx="11095920" cy="6886800"/>
+        <a:ext cx="11094120" cy="6886440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2662,15 +2652,17 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.29"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3102,7 +3094,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>5</v>
       </c>
@@ -3156,10 +3148,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="19" t="s">
         <v>0</v>
@@ -3874,19 +3869,19 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="46.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="9.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="46.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="9.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3927,7 +3922,7 @@
       <c r="G3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="34"/>
@@ -3952,7 +3947,7 @@
       <c r="P3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="36" t="s">
@@ -3971,7 +3966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="n">
         <v>1</v>
       </c>
@@ -3998,441 +3993,440 @@
         <f aca="false">SUMPRODUCT(G5:G9,$H5:$H9)</f>
         <v>8.8</v>
       </c>
-      <c r="H4" s="38" t="n">
+      <c r="H4" s="37" t="n">
         <v>0.35</v>
       </c>
       <c r="I4" s="34"/>
-      <c r="J4" s="39" t="n">
+      <c r="J4" s="38" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="40" t="n">
+      <c r="L4" s="38" t="n">
         <f aca="false">C4</f>
         <v>9.9</v>
       </c>
-      <c r="M4" s="40" t="n">
+      <c r="M4" s="38" t="n">
         <f aca="false">D4</f>
         <v>7.6</v>
       </c>
-      <c r="N4" s="40" t="n">
+      <c r="N4" s="38" t="n">
         <f aca="false">E4</f>
         <v>5.1</v>
       </c>
-      <c r="O4" s="40" t="n">
+      <c r="O4" s="38" t="n">
         <f aca="false">F4</f>
         <v>5.2</v>
       </c>
-      <c r="P4" s="40" t="n">
+      <c r="P4" s="38" t="n">
         <f aca="false">G4</f>
         <v>8.8</v>
       </c>
-      <c r="Q4" s="41" t="n">
+      <c r="Q4" s="39" t="n">
         <f aca="false">H4</f>
         <v>0.35</v>
       </c>
-      <c r="R4" s="40" t="n">
+      <c r="R4" s="38" t="n">
         <f aca="false">L4*$Q4</f>
         <v>3.465</v>
       </c>
-      <c r="S4" s="40" t="n">
+      <c r="S4" s="38" t="n">
         <f aca="false">M4*$Q4</f>
         <v>2.66</v>
       </c>
-      <c r="T4" s="40" t="n">
+      <c r="T4" s="38" t="n">
         <f aca="false">N4*$Q4</f>
         <v>1.785</v>
       </c>
-      <c r="U4" s="40" t="n">
+      <c r="U4" s="38" t="n">
         <f aca="false">O4*$Q4</f>
         <v>1.82</v>
       </c>
-      <c r="V4" s="40" t="n">
+      <c r="V4" s="38" t="n">
         <f aca="false">P4*$Q4</f>
         <v>3.08</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="n">
+      <c r="A5" s="40" t="n">
         <v>1.1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="40" t="n">
+      <c r="C5" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="40" t="n">
+      <c r="E5" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="40" t="n">
+      <c r="F5" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="40" t="n">
+      <c r="G5" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="43" t="n">
+      <c r="H5" s="41" t="n">
         <v>0.4</v>
       </c>
       <c r="I5" s="34"/>
-      <c r="J5" s="39" t="n">
+      <c r="J5" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="40" t="n">
+      <c r="L5" s="38" t="n">
         <f aca="false">C10</f>
         <v>0.5</v>
       </c>
-      <c r="M5" s="40" t="n">
+      <c r="M5" s="38" t="n">
         <f aca="false">D10</f>
         <v>5.8</v>
       </c>
-      <c r="N5" s="40" t="n">
+      <c r="N5" s="38" t="n">
         <f aca="false">E10</f>
         <v>2.05</v>
       </c>
-      <c r="O5" s="40" t="n">
+      <c r="O5" s="38" t="n">
         <f aca="false">F10</f>
         <v>1.35</v>
       </c>
-      <c r="P5" s="40" t="n">
+      <c r="P5" s="38" t="n">
         <f aca="false">G10</f>
         <v>4.5</v>
       </c>
-      <c r="Q5" s="41" t="n">
+      <c r="Q5" s="39" t="n">
         <f aca="false">H10</f>
         <v>0.2</v>
       </c>
-      <c r="R5" s="40" t="n">
+      <c r="R5" s="38" t="n">
         <f aca="false">L5*$Q5</f>
         <v>0.1</v>
       </c>
-      <c r="S5" s="40" t="n">
+      <c r="S5" s="38" t="n">
         <f aca="false">M5*$Q5</f>
         <v>1.16</v>
       </c>
-      <c r="T5" s="40" t="n">
+      <c r="T5" s="38" t="n">
         <f aca="false">N5*$Q5</f>
         <v>0.41</v>
       </c>
-      <c r="U5" s="40" t="n">
+      <c r="U5" s="38" t="n">
         <f aca="false">O5*$Q5</f>
         <v>0.27</v>
       </c>
-      <c r="V5" s="40" t="n">
+      <c r="V5" s="38" t="n">
         <f aca="false">P5*$Q5</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="n">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="n">
         <v>1.2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="40" t="n">
+      <c r="C6" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="40" t="n">
+      <c r="D6" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="40" t="n">
+      <c r="E6" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="40" t="n">
+      <c r="F6" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="40" t="n">
+      <c r="G6" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="H6" s="44" t="n">
+      <c r="H6" s="42" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="40" t="n">
+      <c r="L6" s="38" t="n">
         <f aca="false">C16</f>
         <v>8.6</v>
       </c>
-      <c r="M6" s="40" t="n">
+      <c r="M6" s="38" t="n">
         <f aca="false">D16</f>
         <v>8.8</v>
       </c>
-      <c r="N6" s="40" t="n">
+      <c r="N6" s="38" t="n">
         <f aca="false">E16</f>
         <v>8</v>
       </c>
-      <c r="O6" s="40" t="n">
+      <c r="O6" s="38" t="n">
         <f aca="false">F16</f>
         <v>5.8</v>
       </c>
-      <c r="P6" s="40" t="n">
+      <c r="P6" s="38" t="n">
         <f aca="false">G16</f>
         <v>11</v>
       </c>
-      <c r="Q6" s="41" t="n">
+      <c r="Q6" s="39" t="n">
         <f aca="false">H16</f>
         <v>0.35</v>
       </c>
-      <c r="R6" s="40" t="n">
+      <c r="R6" s="38" t="n">
         <f aca="false">L6*$Q6</f>
         <v>3.01</v>
       </c>
-      <c r="S6" s="40" t="n">
+      <c r="S6" s="38" t="n">
         <f aca="false">M6*$Q6</f>
         <v>3.08</v>
       </c>
-      <c r="T6" s="40" t="n">
+      <c r="T6" s="38" t="n">
         <f aca="false">N6*$Q6</f>
         <v>2.8</v>
       </c>
-      <c r="U6" s="40" t="n">
+      <c r="U6" s="38" t="n">
         <f aca="false">O6*$Q6</f>
         <v>2.03</v>
       </c>
-      <c r="V6" s="40" t="n">
+      <c r="V6" s="38" t="n">
         <f aca="false">P6*$Q6</f>
         <v>3.85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="n">
+      <c r="A7" s="40" t="n">
         <v>1.3</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="40" t="n">
+      <c r="C7" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="40" t="n">
+      <c r="E7" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="40" t="n">
+      <c r="F7" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="40" t="n">
+      <c r="G7" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="H7" s="45" t="n">
+      <c r="H7" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" s="39" t="n">
+      <c r="J7" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="40" t="n">
+      <c r="L7" s="38" t="n">
         <f aca="false">C21</f>
         <v>1</v>
       </c>
-      <c r="M7" s="40" t="n">
+      <c r="M7" s="38" t="n">
         <f aca="false">D21</f>
         <v>3.9</v>
       </c>
-      <c r="N7" s="40" t="n">
+      <c r="N7" s="38" t="n">
         <f aca="false">E21</f>
         <v>1.4</v>
       </c>
-      <c r="O7" s="40" t="n">
+      <c r="O7" s="38" t="n">
         <f aca="false">F21</f>
         <v>0.2</v>
       </c>
-      <c r="P7" s="40" t="n">
+      <c r="P7" s="38" t="n">
         <f aca="false">G21</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="41" t="n">
+      <c r="Q7" s="39" t="n">
         <f aca="false">H21</f>
         <v>0.07</v>
       </c>
-      <c r="R7" s="40" t="n">
+      <c r="R7" s="38" t="n">
         <f aca="false">L7*$Q7</f>
         <v>0.07</v>
       </c>
-      <c r="S7" s="40" t="n">
+      <c r="S7" s="38" t="n">
         <f aca="false">M7*$Q7</f>
         <v>0.273</v>
       </c>
-      <c r="T7" s="40" t="n">
+      <c r="T7" s="38" t="n">
         <f aca="false">N7*$Q7</f>
         <v>0.098</v>
       </c>
-      <c r="U7" s="40" t="n">
+      <c r="U7" s="38" t="n">
         <f aca="false">O7*$Q7</f>
         <v>0.014</v>
       </c>
-      <c r="V7" s="40" t="n">
+      <c r="V7" s="38" t="n">
         <f aca="false">P7*$Q7</f>
         <v>0.14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="n">
+      <c r="A8" s="40" t="n">
         <v>1.4</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="n">
+      <c r="F8" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="45" t="n">
+      <c r="H8" s="41" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" s="39" t="n">
+      <c r="J8" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="40" t="n">
+      <c r="L8" s="38" t="n">
         <f aca="false">C24</f>
         <v>4</v>
       </c>
-      <c r="M8" s="40" t="n">
+      <c r="M8" s="38" t="n">
         <f aca="false">D24</f>
         <v>7</v>
       </c>
-      <c r="N8" s="40" t="n">
+      <c r="N8" s="38" t="n">
         <f aca="false">E24</f>
         <v>6</v>
       </c>
-      <c r="O8" s="40" t="n">
+      <c r="O8" s="38" t="n">
         <f aca="false">F24</f>
         <v>1</v>
       </c>
-      <c r="P8" s="40" t="n">
+      <c r="P8" s="38" t="n">
         <f aca="false">G24</f>
         <v>10</v>
       </c>
-      <c r="Q8" s="41" t="n">
+      <c r="Q8" s="39" t="n">
         <f aca="false">H24</f>
         <v>0.03</v>
       </c>
-      <c r="R8" s="40" t="n">
+      <c r="R8" s="38" t="n">
         <f aca="false">L8*$Q8</f>
         <v>0.12</v>
       </c>
-      <c r="S8" s="40" t="n">
+      <c r="S8" s="38" t="n">
         <f aca="false">M8*$Q8</f>
         <v>0.21</v>
       </c>
-      <c r="T8" s="40" t="n">
+      <c r="T8" s="38" t="n">
         <f aca="false">N8*$Q8</f>
         <v>0.18</v>
       </c>
-      <c r="U8" s="40" t="n">
+      <c r="U8" s="38" t="n">
         <f aca="false">O8*$Q8</f>
         <v>0.03</v>
       </c>
-      <c r="V8" s="40" t="n">
+      <c r="V8" s="38" t="n">
         <f aca="false">P8*$Q8</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="40" t="n">
         <v>1.5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="40" t="n">
+      <c r="C9" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="40" t="n">
+      <c r="D9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="40" t="n">
+      <c r="E9" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="40" t="n">
+      <c r="F9" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="40" t="n">
+      <c r="G9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="45" t="n">
+      <c r="H9" s="41" t="n">
         <v>0.1</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="48" t="n">
+      <c r="L9" s="44" t="n">
         <f aca="false">SUMPRODUCT(L4:L8,$Q4:$Q8)</f>
         <v>6.765</v>
       </c>
-      <c r="M9" s="48" t="n">
+      <c r="M9" s="44" t="n">
         <f aca="false">SUMPRODUCT(M4:M8,$Q4:$Q8)</f>
         <v>7.383</v>
       </c>
-      <c r="N9" s="48" t="n">
+      <c r="N9" s="44" t="n">
         <f aca="false">SUMPRODUCT(N4:N8,$Q4:$Q8)</f>
         <v>5.273</v>
       </c>
-      <c r="O9" s="48" t="n">
+      <c r="O9" s="44" t="n">
         <f aca="false">SUMPRODUCT(O4:O8,$Q4:$Q8)</f>
         <v>4.164</v>
       </c>
-      <c r="P9" s="48" t="n">
+      <c r="P9" s="44" t="n">
         <f aca="false">SUMPRODUCT(P4:P8,$Q4:$Q8)</f>
         <v>8.27</v>
       </c>
-      <c r="R9" s="49" t="n">
+      <c r="R9" s="45" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>6.765</v>
       </c>
-      <c r="S9" s="49" t="n">
+      <c r="S9" s="45" t="n">
         <f aca="false">SUM(S4:S8)</f>
         <v>7.383</v>
       </c>
-      <c r="T9" s="49" t="n">
+      <c r="T9" s="45" t="n">
         <f aca="false">SUM(T4:T8)</f>
         <v>5.273</v>
       </c>
-      <c r="U9" s="49" t="n">
+      <c r="U9" s="45" t="n">
         <f aca="false">SUM(U4:U8)</f>
         <v>4.164</v>
       </c>
-      <c r="V9" s="49" t="n">
+      <c r="V9" s="45" t="n">
         <f aca="false">SUM(V4:V8)</f>
         <v>8.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="n">
+      <c r="A10" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="36" t="n">
@@ -4455,163 +4449,163 @@
         <f aca="false">SUMPRODUCT(G11:G15,$H11:$H15)</f>
         <v>4.5</v>
       </c>
-      <c r="H10" s="51" t="n">
+      <c r="H10" s="37" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="n">
+      <c r="A11" s="40" t="n">
         <v>2.1</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="40" t="n">
+      <c r="C11" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="40" t="n">
+      <c r="D11" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="40" t="n">
+      <c r="E11" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="40" t="n">
+      <c r="F11" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="40" t="n">
+      <c r="G11" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="45" t="n">
+      <c r="H11" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="Y11" s="53"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="Y11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
+      <c r="A12" s="40" t="n">
         <v>2.2</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="40" t="n">
+      <c r="C12" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="40" t="n">
+      <c r="D12" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="E12" s="40" t="n">
+      <c r="E12" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="40" t="n">
+      <c r="F12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="40" t="n">
+      <c r="G12" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="H12" s="45" t="n">
+      <c r="H12" s="41" t="n">
         <v>0.35</v>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="n">
+      <c r="A13" s="40" t="n">
         <v>2.3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="40" t="n">
+      <c r="C13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="40" t="n">
+      <c r="D13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="40" t="n">
+      <c r="E13" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="40" t="n">
+      <c r="F13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="40" t="n">
+      <c r="G13" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="45" t="n">
+      <c r="H13" s="41" t="n">
         <v>0.05</v>
       </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
+      <c r="A14" s="40" t="n">
         <v>2.4</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="40" t="n">
+      <c r="C14" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="40" t="n">
+      <c r="D14" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="40" t="n">
+      <c r="E14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="40" t="n">
+      <c r="F14" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="40" t="n">
+      <c r="G14" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="45" t="n">
+      <c r="H14" s="41" t="n">
         <v>0.05</v>
       </c>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
+      <c r="A15" s="40" t="n">
         <v>2.5</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="40" t="n">
+      <c r="C15" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="40" t="n">
+      <c r="D15" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="40" t="n">
+      <c r="E15" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="40" t="n">
+      <c r="F15" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="40" t="n">
+      <c r="G15" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="45" t="n">
+      <c r="H15" s="41" t="n">
         <v>0.05</v>
       </c>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="n">
+      <c r="A16" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="36" t="n">
@@ -4634,134 +4628,134 @@
         <f aca="false">SUMPRODUCT(G17:G20,$H17:$H20)</f>
         <v>11</v>
       </c>
-      <c r="H16" s="51" t="n">
+      <c r="H16" s="37" t="n">
         <v>0.35</v>
       </c>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="n">
+      <c r="A17" s="40" t="n">
         <v>3.1</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="D17" s="40" t="n">
+      <c r="D17" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="40" t="n">
+      <c r="E17" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="40" t="n">
+      <c r="F17" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="40" t="n">
+      <c r="G17" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="45" t="n">
+      <c r="H17" s="41" t="n">
         <v>0.4</v>
       </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="n">
+      <c r="A18" s="40" t="n">
         <v>3.2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="40" t="n">
+      <c r="D18" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="40" t="n">
+      <c r="E18" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="40" t="n">
+      <c r="F18" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="G18" s="40" t="n">
+      <c r="G18" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="45" t="n">
+      <c r="H18" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="n">
+      <c r="A19" s="40" t="n">
         <v>3.3</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="40" t="n">
+      <c r="C19" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="D19" s="40" t="n">
+      <c r="D19" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="40" t="n">
+      <c r="E19" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="40" t="n">
+      <c r="F19" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="G19" s="40" t="n">
+      <c r="G19" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="H19" s="45" t="n">
+      <c r="H19" s="41" t="n">
         <v>0.4</v>
       </c>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="n">
+      <c r="A20" s="40" t="n">
         <v>3.4</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="40" t="n">
+      <c r="D20" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E20" s="40" t="n">
+      <c r="E20" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="40" t="n">
+      <c r="F20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="40" t="n">
+      <c r="G20" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="H20" s="45" t="n">
+      <c r="H20" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="n">
+      <c r="A21" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="36" t="n">
@@ -4784,76 +4778,76 @@
         <f aca="false">SUMPRODUCT(G22:G23,$H22:$H23)</f>
         <v>2</v>
       </c>
-      <c r="H21" s="51" t="n">
+      <c r="H21" s="37" t="n">
         <v>0.07</v>
       </c>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="n">
+      <c r="A22" s="40" t="n">
         <v>4.1</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="40" t="n">
+      <c r="D22" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="40" t="n">
+      <c r="E22" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="40" t="n">
+      <c r="F22" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="40" t="n">
+      <c r="G22" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="45" t="n">
+      <c r="H22" s="41" t="n">
         <v>0.9</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="n">
+      <c r="A23" s="40" t="n">
         <v>4.2</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="40" t="n">
+      <c r="C23" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="40" t="n">
+      <c r="D23" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="40" t="n">
+      <c r="E23" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="40" t="n">
+      <c r="F23" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="40" t="n">
+      <c r="G23" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="45" t="n">
+      <c r="H23" s="41" t="n">
         <v>0.1</v>
       </c>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="n">
+      <c r="A24" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="36" t="n">
@@ -4871,37 +4865,37 @@
       <c r="G24" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="H24" s="51" t="n">
+      <c r="H24" s="37" t="n">
         <v>0.03</v>
       </c>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -4915,7 +4909,7 @@
       <c r="H27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -4929,7 +4923,7 @@
       <c r="H28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -4943,7 +4937,7 @@
       <c r="H29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="102.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -4957,7 +4951,7 @@
       <c r="H30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="85.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="31" t="s">
